--- a/data/long_dif/P16-Urba-long_dif.xlsx
+++ b/data/long_dif/P16-Urba-long_dif.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K27"/>
+  <dimension ref="A1:N36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,9 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +545,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +583,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
         </is>
       </c>
     </row>
@@ -618,6 +639,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -627,52 +651,67 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Mejor</t>
+          <t>Mejor diferencia negativa</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>18,6%</t>
+          <t>19,01%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>25,35%</t>
+          <t>25,86%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>17,3%</t>
+          <t>17,12%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>21,28%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>17,66%</t>
+          <t>20,97%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>17,24%</t>
+          <t>16,84%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>19,99%</t>
+          <t>17,45%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>21,34%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>17,27%</t>
+          <t>20,03%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>21,15%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>17,29%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -685,47 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>14,64; 22,66</t>
+          <t>15,64; 23,06</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>20,94; 32,15</t>
+          <t>20,82; 33,69</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>13,57; 21,21</t>
+          <t>13,62; 21,17</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>17,51; 24,79</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>14,18; 23,54</t>
+          <t>17,81; 25,02</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>14,55; 20,77</t>
+          <t>13,47; 21,44</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>17,43; 22,75</t>
+          <t>14,49; 20,54</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>17,77; 25,45</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>15,01; 19,75</t>
+          <t>17,68; 23,07</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>18,18; 25,54</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>15,05; 19,96</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -733,52 +787,67 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>56,82%</t>
+          <t>57,5%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>53,77%</t>
+          <t>53,49%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>59,96%</t>
+          <t>60,37%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>55,41%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>55,69%</t>
+          <t>55,36%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>55,55%</t>
+          <t>55,79%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>56,08%</t>
+          <t>56,27%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>54,77%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>57,65%</t>
+          <t>56,38%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>54,69%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>58,21%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -791,47 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>50,71; 61,89</t>
+          <t>52,83; 63,1</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>48,4; 59,78</t>
+          <t>46,47; 59,21</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>55,23; 65,65</t>
+          <t>55,32; 65,56</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>50,6; 59,96</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>50,21; 60,17</t>
+          <t>50,95; 59,24</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>51,07; 59,3</t>
+          <t>51,23; 60,44</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>52,47; 59,26</t>
+          <t>52,18; 59,93</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>50,98; 58,56</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>54,33; 60,79</t>
+          <t>52,99; 59,35</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>51,02; 58,59</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>54,99; 61,38</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -839,52 +923,67 @@
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Peor</t>
+          <t>Peor Diferencia Positiva</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>24,58%</t>
+          <t>23,49%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>20,88%</t>
+          <t>20,65%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>22,74%</t>
+          <t>22,52%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>23,31%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>26,65%</t>
+          <t>23,67%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>27,21%</t>
+          <t>27,37%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>23,92%</t>
+          <t>26,28%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>23,89%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>25,09%</t>
+          <t>23,59%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>24,16%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>24,49%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -897,104 +996,130 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>20,07; 31,15</t>
+          <t>19,52; 28,25</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>17,22; 25,55</t>
+          <t>16,57; 24,71</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>18,33; 26,94</t>
+          <t>18,34; 26,81</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>19,63; 27,32</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>22,51; 30,87</t>
+          <t>19,96; 27,72</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>23,54; 32,11</t>
+          <t>23,53; 31,39</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>21,05; 27,18</t>
+          <t>22,59; 30,06</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>20,92; 26,59</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>22,5; 28,49</t>
+          <t>20,95; 26,51</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>21,62; 27,06</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>21,9; 27,43</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>Intermedio</t>
-        </is>
-      </c>
+      <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Mejor</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>20,17%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>20,86%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>21,49%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>26,9%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>18,4%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>19,49%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>23,57%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>19,62%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>20,49%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1007,100 +1132,134 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>15,39; 28,79</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>16,55; 26,39</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>16,95; 26,19</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>22,3; 31,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>14,39; 23,5</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>15,82; 23,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>20,55; 28,41</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>16,42; 23,12</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>17,56; 23,69</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n"/>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Mejor diferencia negativa</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>56,3%</t>
+          <t>18,18%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>56,57%</t>
+          <t>21,4%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>56,15%</t>
+          <t>21,15%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>50,64%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>50,92%</t>
+          <t>26,47%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>55,45%</t>
+          <t>18,64%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>53,44%</t>
+          <t>19,37%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>53,73%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>55,8%</t>
+          <t>22,36%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>20,02%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>20,26%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1113,47 +1272,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>48,65; 61,71</t>
+          <t>14,41; 22,86</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>50,02; 63,16</t>
+          <t>17,14; 26,46</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>50,46; 61,74</t>
+          <t>16,82; 26,19</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>45,35; 55,77</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>45,22; 56,65</t>
+          <t>21,85; 30,88</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>50,77; 59,9</t>
+          <t>14,36; 24,28</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>49,03; 57,44</t>
+          <t>16,02; 24,11</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>49,63; 57,96</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>52,27; 59,61</t>
+          <t>19,5; 25,52</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>16,43; 23,62</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>17,32; 23,43</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1161,52 +1335,67 @@
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Peor</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>23,53%</t>
+          <t>57,43%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>22,57%</t>
+          <t>56,62%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>22,36%</t>
+          <t>56,17%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>22,45%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>30,69%</t>
+          <t>50,88%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>25,06%</t>
+          <t>50,64%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>22,99%</t>
+          <t>55,41%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>26,65%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>23,7%</t>
+          <t>54,12%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>53,61%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>55,79%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1219,104 +1408,130 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>18,99; 29,25</t>
+          <t>50,91; 62,74</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>17,45; 28,52</t>
+          <t>50,27; 62,8</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>18,47; 26,71</t>
+          <t>50,63; 61,59</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>18,33; 27,4</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>25,85; 35,79</t>
+          <t>45,85; 56,8</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>21,22; 28,88</t>
+          <t>45,14; 55,96</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>19,9; 26,37</t>
+          <t>50,83; 60,38</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>23,31; 30,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>20,53; 26,56</t>
+          <t>50,15; 57,86</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>49,36; 57,72</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>51,98; 59,28</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Mejor</t>
+          <t>Peor Diferencia Positiva</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>28,88%</t>
+          <t>24,39%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>28,87%</t>
+          <t>21,97%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>19,88%</t>
+          <t>22,69%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>15,13%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>17,8%</t>
+          <t>22,65%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>12,25%</t>
+          <t>30,72%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>22,06%</t>
+          <t>25,22%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>23,38%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>16,13%</t>
+          <t>23,52%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>26,37%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>23,95%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1329,47 +1544,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>16,62; 47,61</t>
+          <t>19,98; 29,62</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>18,68; 40,89</t>
+          <t>17,41; 27,69</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>13,46; 29,06</t>
+          <t>18,3; 27,22</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>8,63; 22,59</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>11,59; 26,56</t>
+          <t>18,78; 28,04</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>7,5; 19,35</t>
+          <t>25,59; 35,61</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>15,49; 33,4</t>
+          <t>20,88; 29,53</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>16,98; 30,35</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>11,92; 21,93</t>
+          <t>20,47; 27,61</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>22,94; 30,32</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>21,17; 27,2</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1377,52 +1607,67 @@
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>40,3%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>42,04%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>53,71%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>62,7%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>63,59%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>62,07%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>51,4%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>52,73%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>57,82%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1435,100 +1680,134 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>27,46; 52,44</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>30,62; 53,69</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>44,02; 63,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>52,9; 71,46</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>53,2; 73,3</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>53,97; 70,78</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>42,79; 59,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>43,52; 60,17</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>50,83; 64,3</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n"/>
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Peor</t>
+          <t>Mejor diferencia negativa</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>30,83%</t>
+          <t>28,05%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>29,09%</t>
+          <t>27,03%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>26,41%</t>
+          <t>19,47%</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>22,17%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>18,61%</t>
+          <t>16,4%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>25,68%</t>
+          <t>17,43%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>26,53%</t>
+          <t>12,47%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>23,89%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>26,05%</t>
+          <t>22,28%</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>22,27%</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>16,03%</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1541,104 +1820,130 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>20,49; 44,03</t>
+          <t>17,35; 50,27</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>18,7; 44,03</t>
+          <t>18,11; 38,39</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>17,89; 35,49</t>
+          <t>12,79; 28,17</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>14,68; 30,59</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>11,9; 27,68</t>
+          <t>10,36; 24,38</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>18,17; 33,58</t>
+          <t>10,45; 25,22</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>19,46; 34,75</t>
+          <t>7,13; 19,35</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>16,96; 33,37</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>20,2; 31,96</t>
+          <t>15,76; 36,39</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>16,53; 29,22</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>11,96; 21,31</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A22" s="1" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Mejor</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>20,48%</t>
+          <t>41,61%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>23,99%</t>
+          <t>42,34%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>19,29%</t>
+          <t>54,29%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>22,78%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>17,96%</t>
+          <t>61,24%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>17,53%</t>
+          <t>63,43%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>21,66%</t>
+          <t>62,35%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>20,91%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>18,39%</t>
+          <t>51,34%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>52,79%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>58,25%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1651,47 +1956,62 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>17,51; 24,94</t>
+          <t>28,67; 52,34</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>20,96; 28,43</t>
+          <t>29,97; 53,37</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>16,64; 22,32</t>
+          <t>44,42; 64,07</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>20,25; 25,81</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>15,23; 21,21</t>
+          <t>51,56; 70,48</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>15,42; 19,73</t>
+          <t>53,4; 72,44</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>19,41; 24,3</t>
+          <t>52,86; 70,73</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>18,81; 23,67</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>16,58; 20,23</t>
+          <t>43,23; 59,43</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>44,42; 61,1</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>52,05; 64,76</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1699,52 +2019,67 @@
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Peor Diferencia Positiva</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>54,6%</t>
+          <t>30,34%</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>53,46%</t>
+          <t>30,64%</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>57,67%</t>
+          <t>26,23%</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>54,38%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>54,75%</t>
+          <t>22,36%</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>56,25%</t>
+          <t>19,14%</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>54,49%</t>
+          <t>25,18%</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>54,12%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>56,95%</t>
+          <t>26,38%</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>24,94%</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>25,72%</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1757,47 +2092,62 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>50,22; 58,53</t>
+          <t>20,49; 41,0</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>49,02; 57,47</t>
+          <t>19,02; 48,31</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>54,24; 60,94</t>
+          <t>17,91; 35,29</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>51,46; 57,72</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>51,12; 57,77</t>
+          <t>15,1; 30,77</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>53,33; 59,1</t>
+          <t>12,26; 27,43</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>51,79; 56,84</t>
+          <t>17,98; 33,45</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>51,29; 56,82</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>54,56; 59,13</t>
+          <t>19,96; 33,73</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>17,78; 35,81</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>20,54; 32,31</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1805,52 +2155,67 @@
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Peor</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>24,92%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>22,55%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>23,04%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>22,85%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>27,29%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>26,22%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>23,86%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>24,98%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>24,66%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1863,60 +2228,630 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>21,69; 28,87</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>19,81; 26,07</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>20,3; 25,91</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>20,25; 25,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>24,45; 30,38</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>23,67; 29,29</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>21,75; 26,16</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>22,69; 27,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>22,71; 26,63</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>Mejor diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>19,78%</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>24,22%</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>19,02%</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>22,6%</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>17,6%</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>17,61%</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>21,22%</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>20,84%</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>18,3%</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>16,77; 23,36</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>20,55; 28,38</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>16,34; 22,21</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>20,12; 25,44</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>15,07; 20,72</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>15,39; 19,95</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>19,26; 23,46</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>18,72; 23,34</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>16,54; 20,41</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>55,53%</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>53,38%</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>57,94%</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>54,28%</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>54,67%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>56,63%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>54,89%</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>54,04%</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>57,27%</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n"/>
+      <c r="B31" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C31" s="2" t="inlineStr">
+        <is>
+          <t>51,79; 59,45</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>49,23; 57,91</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>54,32; 61,29</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>50,89; 57,77</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>51,19; 57,99</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>53,77; 59,73</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>52,24; 57,21</t>
+        </is>
+      </c>
+      <c r="L31" s="2" t="inlineStr">
+        <is>
+          <t>51,49; 56,67</t>
+        </is>
+      </c>
+      <c r="M31" s="2" t="inlineStr">
+        <is>
+          <t>55,05; 59,54</t>
+        </is>
+      </c>
+      <c r="N31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n"/>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Peor Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>24,69%</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>22,4%</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>23,04%</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>23,12%</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>27,72%</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>25,75%</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>23,89%</t>
+        </is>
+      </c>
+      <c r="L32" s="2" t="inlineStr">
+        <is>
+          <t>25,12%</t>
+        </is>
+      </c>
+      <c r="M32" s="2" t="inlineStr">
+        <is>
+          <t>24,42%</t>
+        </is>
+      </c>
+      <c r="N32" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>21,36; 27,57</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>19,08; 25,81</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>20,37; 25,91</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>20,56; 26,02</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>24,86; 30,72</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>23,27; 28,37</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>21,76; 25,93</t>
+        </is>
+      </c>
+      <c r="L33" s="2" t="inlineStr">
+        <is>
+          <t>23,0; 27,29</t>
+        </is>
+      </c>
+      <c r="M33" s="2" t="inlineStr">
+        <is>
+          <t>22,67; 26,27</t>
+        </is>
+      </c>
+      <c r="N33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A10:A15"/>
+    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="A20:A27"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A28:A35"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
